--- a/ventes.xlsx
+++ b/ventes.xlsx
@@ -382,7 +382,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Catégorie</t>
+          <t>Categorie</t>
         </is>
       </c>
     </row>
